--- a/medicine/Mort/Terrorisme_en_1992/Terrorisme_en_1992.xlsx
+++ b/medicine/Mort/Terrorisme_en_1992/Terrorisme_en_1992.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,25 +520,229 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-8 janvier, Irlande du Nord : un attentat de l'IRA contre un car d'ouvriers fait huit morts[réf. obsolète].
-Février
-Mars
-17 mars, Argentine : un attentat contre l'ambassade d'Israël à Buenos Aires, fait vingt-neuf morts et deux-cent quarante-deux blessés[1]
-Avril
-10 avril, Royaume-Uni : un attentat à la voiture piégée (qui contient une tonne d'explosifs) de l'IRA provisoire à la City de Londres fait trois morts et quatre-vingt-dix blessés, et provoque des dégâts évalués à une dizaine de milliards de francs[réf. obsolète].
-Mai
-23 mai, Italie : une bombe de 600 kg placée sous une autoroute à Capaci près de Palerme explose au passage de la voiture du juge anti-mafia Giovanni Falcone. Le juge, son épouse Francesca Morvillo, et trois gardes du corps trouvent la mort dans cette attaque commanditée par Toto Riina, un membre de la Cosa nostra[2].
-Juin
-29 juin, Algérie : assassinat du président Mohamed Boudiaf à Annaba[3].
-Juillet
-19 juillet, Italie : un attentat à la voiture piégée à Palerme tue six personnes, dont le juge anti-mafia Paolo Borsellino[réf. obsolète].
-Août
-26 août, Algérie : une bombe à l'aéroport d'Alger, cause la mort de neuf personnes et fait cent vingt-huit blessés. Il s'agit d'un des premiers massacres de la guerre civile algérienne[3].
-Septembre
-Octobre
-Novembre
-Décembre</t>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>8 janvier, Irlande du Nord : un attentat de l'IRA contre un car d'ouvriers fait huit morts[réf. obsolète].</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1992</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1992</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>17 mars, Argentine : un attentat contre l'ambassade d'Israël à Buenos Aires, fait vingt-neuf morts et deux-cent quarante-deux blessés</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1992</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1992</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>10 avril, Royaume-Uni : un attentat à la voiture piégée (qui contient une tonne d'explosifs) de l'IRA provisoire à la City de Londres fait trois morts et quatre-vingt-dix blessés, et provoque des dégâts évalués à une dizaine de milliards de francs[réf. obsolète].</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1992</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1992</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>23 mai, Italie : une bombe de 600 kg placée sous une autoroute à Capaci près de Palerme explose au passage de la voiture du juge anti-mafia Giovanni Falcone. Le juge, son épouse Francesca Morvillo, et trois gardes du corps trouvent la mort dans cette attaque commanditée par Toto Riina, un membre de la Cosa nostra.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1992</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1992</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>29 juin, Algérie : assassinat du président Mohamed Boudiaf à Annaba.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1992</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1992</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>19 juillet, Italie : un attentat à la voiture piégée à Palerme tue six personnes, dont le juge anti-mafia Paolo Borsellino[réf. obsolète].</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_1992</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_1992</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>26 août, Algérie : une bombe à l'aéroport d'Alger, cause la mort de neuf personnes et fait cent vingt-huit blessés. Il s'agit d'un des premiers massacres de la guerre civile algérienne.</t>
         </is>
       </c>
     </row>
